--- a/data/pca/factorExposure/factorExposure_2015-12-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-12-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01740347746799463</v>
+        <v>0.0177297465589458</v>
       </c>
       <c r="C2">
-        <v>0.03207077919978912</v>
+        <v>-0.03251834042052689</v>
       </c>
       <c r="D2">
-        <v>-0.09197326035464283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1152012317055249</v>
+      </c>
+      <c r="E2">
+        <v>-0.06781505365813337</v>
+      </c>
+      <c r="F2">
+        <v>-0.009836965832367229</v>
+      </c>
+      <c r="G2">
+        <v>0.05032206918014875</v>
+      </c>
+      <c r="H2">
+        <v>-0.09439393197779807</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.01512853343557668</v>
+        <v>0.008628058238077852</v>
       </c>
       <c r="C3">
-        <v>0.0559314245825489</v>
+        <v>-0.03701085784636311</v>
       </c>
       <c r="D3">
-        <v>-0.1368834285361347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.08082114699114648</v>
+      </c>
+      <c r="E3">
+        <v>-0.07935051978688341</v>
+      </c>
+      <c r="F3">
+        <v>-0.03419563018395995</v>
+      </c>
+      <c r="G3">
+        <v>0.08203213731612291</v>
+      </c>
+      <c r="H3">
+        <v>-0.04544612449882073</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04872742113599972</v>
+        <v>0.05345907306892132</v>
       </c>
       <c r="C4">
-        <v>0.03597582120557036</v>
+        <v>-0.0636483258062896</v>
       </c>
       <c r="D4">
-        <v>-0.1240686036740822</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1393130948687039</v>
+      </c>
+      <c r="E4">
+        <v>-0.05693909919279968</v>
+      </c>
+      <c r="F4">
+        <v>-0.01818377719057199</v>
+      </c>
+      <c r="G4">
+        <v>-0.02785201501919769</v>
+      </c>
+      <c r="H4">
+        <v>0.02804129785772504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.04351474558586959</v>
+        <v>0.04023641105228389</v>
       </c>
       <c r="C6">
-        <v>0.005719075765954346</v>
+        <v>-0.0263312204032666</v>
       </c>
       <c r="D6">
-        <v>-0.1281545736119332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1276591715451738</v>
+      </c>
+      <c r="E6">
+        <v>-0.03410638998138033</v>
+      </c>
+      <c r="F6">
+        <v>-0.01307968836424505</v>
+      </c>
+      <c r="G6">
+        <v>0.01107633771626961</v>
+      </c>
+      <c r="H6">
+        <v>-0.01545441052582298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02215875406483664</v>
+        <v>0.01578719946514789</v>
       </c>
       <c r="C7">
-        <v>0.01345262463757279</v>
+        <v>-0.02937551755278737</v>
       </c>
       <c r="D7">
-        <v>-0.0917672934167138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09157387529056966</v>
+      </c>
+      <c r="E7">
+        <v>-0.03481207780028528</v>
+      </c>
+      <c r="F7">
+        <v>-0.01648526937868153</v>
+      </c>
+      <c r="G7">
+        <v>-0.02218470818205154</v>
+      </c>
+      <c r="H7">
+        <v>-0.1047492513927461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.00925053087758366</v>
+        <v>0.007694515265871889</v>
       </c>
       <c r="C8">
-        <v>0.02881958744163939</v>
+        <v>-0.03774811369797089</v>
       </c>
       <c r="D8">
-        <v>-0.06271638203435287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07573841525360375</v>
+      </c>
+      <c r="E8">
+        <v>-0.03871648712992994</v>
+      </c>
+      <c r="F8">
+        <v>-0.0295459128791965</v>
+      </c>
+      <c r="G8">
+        <v>0.004772839252072109</v>
+      </c>
+      <c r="H8">
+        <v>-0.03970209132944635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04102246135036591</v>
+        <v>0.04144244293906549</v>
       </c>
       <c r="C9">
-        <v>0.03587436657411804</v>
+        <v>-0.05898094051374671</v>
       </c>
       <c r="D9">
-        <v>-0.1094792548285553</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.117808598228953</v>
+      </c>
+      <c r="E9">
+        <v>-0.03511107312489332</v>
+      </c>
+      <c r="F9">
+        <v>-0.0001110153820407223</v>
+      </c>
+      <c r="G9">
+        <v>-0.02426798118178524</v>
+      </c>
+      <c r="H9">
+        <v>-0.006184989568439705</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.09651245786278313</v>
+        <v>0.1361398488293716</v>
       </c>
       <c r="C10">
-        <v>-0.1941118630395475</v>
+        <v>0.1886288125256405</v>
       </c>
       <c r="D10">
-        <v>0.005327714064101582</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.001356567305025301</v>
+      </c>
+      <c r="E10">
+        <v>-0.05224468943291239</v>
+      </c>
+      <c r="F10">
+        <v>-0.01186305493783191</v>
+      </c>
+      <c r="G10">
+        <v>-0.04120929142058129</v>
+      </c>
+      <c r="H10">
+        <v>0.006909205899158957</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03397873602226124</v>
+        <v>0.02837681316678399</v>
       </c>
       <c r="C11">
-        <v>0.03785327072153829</v>
+        <v>-0.04313570611203826</v>
       </c>
       <c r="D11">
-        <v>-0.06137669484186341</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05848731041378007</v>
+      </c>
+      <c r="E11">
+        <v>6.195288825728643e-06</v>
+      </c>
+      <c r="F11">
+        <v>-0.0094672113640475</v>
+      </c>
+      <c r="G11">
+        <v>-0.005687005969630977</v>
+      </c>
+      <c r="H11">
+        <v>-0.04941460974957612</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03838392742253095</v>
+        <v>0.03279483125432577</v>
       </c>
       <c r="C12">
-        <v>0.04119201148361152</v>
+        <v>-0.04563344517597256</v>
       </c>
       <c r="D12">
-        <v>-0.06032596552476436</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05614503435494803</v>
+      </c>
+      <c r="E12">
+        <v>-0.008843637969925228</v>
+      </c>
+      <c r="F12">
+        <v>-0.004631873552543246</v>
+      </c>
+      <c r="G12">
+        <v>-0.01059122774447503</v>
+      </c>
+      <c r="H12">
+        <v>-0.06382786723206998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01370761728797617</v>
+        <v>0.01827772857471155</v>
       </c>
       <c r="C13">
-        <v>0.02636816537088576</v>
+        <v>-0.03771824995651588</v>
       </c>
       <c r="D13">
-        <v>-0.1229635355519037</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1414442701191291</v>
+      </c>
+      <c r="E13">
+        <v>-0.06266035666329615</v>
+      </c>
+      <c r="F13">
+        <v>-0.02783133566570622</v>
+      </c>
+      <c r="G13">
+        <v>-0.004204318123057266</v>
+      </c>
+      <c r="H13">
+        <v>-0.09860293788796894</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01154621700864454</v>
+        <v>0.008168893305235455</v>
       </c>
       <c r="C14">
-        <v>0.0182819946294683</v>
+        <v>-0.02398638016662749</v>
       </c>
       <c r="D14">
-        <v>-0.08276123496236182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0848125540247303</v>
+      </c>
+      <c r="E14">
+        <v>-0.03235241766476062</v>
+      </c>
+      <c r="F14">
+        <v>0.009241678399742159</v>
+      </c>
+      <c r="G14">
+        <v>-0.003134086241238023</v>
+      </c>
+      <c r="H14">
+        <v>-0.09883118109938314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001500181308321107</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.009114527340260921</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.02839165596943629</v>
+      </c>
+      <c r="E15">
+        <v>-0.005649760735334753</v>
+      </c>
+      <c r="F15">
+        <v>0.002349666145213699</v>
+      </c>
+      <c r="G15">
+        <v>0.007344139609363491</v>
+      </c>
+      <c r="H15">
+        <v>-0.01065957073533173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03623386572769784</v>
+        <v>0.02951786843116845</v>
       </c>
       <c r="C16">
-        <v>0.03979996263770682</v>
+        <v>-0.04374281865941897</v>
       </c>
       <c r="D16">
-        <v>-0.06864969081831551</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06110461080844871</v>
+      </c>
+      <c r="E16">
+        <v>-0.01160083085421223</v>
+      </c>
+      <c r="F16">
+        <v>0.003137780945512672</v>
+      </c>
+      <c r="G16">
+        <v>-0.001200238892945656</v>
+      </c>
+      <c r="H16">
+        <v>-0.05836226433655266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.009313022241138573</v>
+        <v>0.01062716691299071</v>
       </c>
       <c r="C19">
-        <v>0.01839831157362528</v>
+        <v>-0.02089182915130121</v>
       </c>
       <c r="D19">
-        <v>-0.1698121631543313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1306865336503412</v>
+      </c>
+      <c r="E19">
+        <v>-0.06116350733809685</v>
+      </c>
+      <c r="F19">
+        <v>0.02804201077766779</v>
+      </c>
+      <c r="G19">
+        <v>0.01399627711595844</v>
+      </c>
+      <c r="H19">
+        <v>-0.06137050799220007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.02026631934094645</v>
+        <v>0.015961399196563</v>
       </c>
       <c r="C20">
-        <v>0.02023537289147398</v>
+        <v>-0.03181667902515944</v>
       </c>
       <c r="D20">
-        <v>-0.08569330196965955</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.09491855486065257</v>
+      </c>
+      <c r="E20">
+        <v>-0.05374454124752676</v>
+      </c>
+      <c r="F20">
+        <v>0.007980337228830157</v>
+      </c>
+      <c r="G20">
+        <v>-0.005911621900370901</v>
+      </c>
+      <c r="H20">
+        <v>-0.05715128347608728</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.00931597889126661</v>
+        <v>0.01498917553323435</v>
       </c>
       <c r="C21">
-        <v>0.02493591249445592</v>
+        <v>-0.03645604146421241</v>
       </c>
       <c r="D21">
-        <v>-0.1264963085996622</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1374360102092143</v>
+      </c>
+      <c r="E21">
+        <v>-0.08817682963675054</v>
+      </c>
+      <c r="F21">
+        <v>0.01525478165011689</v>
+      </c>
+      <c r="G21">
+        <v>-0.04459701831023503</v>
+      </c>
+      <c r="H21">
+        <v>-0.1083089677878247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.004724021687148342</v>
+        <v>0.005253388282105109</v>
       </c>
       <c r="C22">
-        <v>0.02482048100376528</v>
+        <v>-0.0400454022608516</v>
       </c>
       <c r="D22">
-        <v>-0.07387452962989068</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1302694973007081</v>
+      </c>
+      <c r="E22">
+        <v>-0.03465787243560921</v>
+      </c>
+      <c r="F22">
+        <v>-0.07998632821307561</v>
+      </c>
+      <c r="G22">
+        <v>0.06578785759061347</v>
+      </c>
+      <c r="H22">
+        <v>0.03783724666403179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.004764754845480329</v>
+        <v>0.005349094852526452</v>
       </c>
       <c r="C23">
-        <v>0.0248127740478544</v>
+        <v>-0.04049666188941531</v>
       </c>
       <c r="D23">
-        <v>-0.0732872230472479</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1297291514466938</v>
+      </c>
+      <c r="E23">
+        <v>-0.03487961853012569</v>
+      </c>
+      <c r="F23">
+        <v>-0.07988191580701218</v>
+      </c>
+      <c r="G23">
+        <v>0.06490244266575872</v>
+      </c>
+      <c r="H23">
+        <v>0.03816519321110951</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03480535842757975</v>
+        <v>0.03107108683643219</v>
       </c>
       <c r="C24">
-        <v>0.04398330041860974</v>
+        <v>-0.05389320783312975</v>
       </c>
       <c r="D24">
-        <v>-0.06957868101370511</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06544685714204788</v>
+      </c>
+      <c r="E24">
+        <v>-0.0140553497355674</v>
+      </c>
+      <c r="F24">
+        <v>0.0008467596788047605</v>
+      </c>
+      <c r="G24">
+        <v>-0.01402497859879187</v>
+      </c>
+      <c r="H24">
+        <v>-0.06795314007587278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04002454259104515</v>
+        <v>0.03508292951779718</v>
       </c>
       <c r="C25">
-        <v>0.04790208531207651</v>
+        <v>-0.05275728486384706</v>
       </c>
       <c r="D25">
-        <v>-0.06823952178670079</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06128666954256586</v>
+      </c>
+      <c r="E25">
+        <v>-0.01753161637414857</v>
+      </c>
+      <c r="F25">
+        <v>-0.007677279861269871</v>
+      </c>
+      <c r="G25">
+        <v>-0.01873910536682203</v>
+      </c>
+      <c r="H25">
+        <v>-0.05618156276935114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02392397659195562</v>
+        <v>0.02114676115426674</v>
       </c>
       <c r="C26">
-        <v>0.00304420119033402</v>
+        <v>-0.01654309230971331</v>
       </c>
       <c r="D26">
-        <v>-0.0539267108310345</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06422528693355373</v>
+      </c>
+      <c r="E26">
+        <v>-0.02628146403519784</v>
+      </c>
+      <c r="F26">
+        <v>0.005563876491026186</v>
+      </c>
+      <c r="G26">
+        <v>0.002349728502602264</v>
+      </c>
+      <c r="H26">
+        <v>-0.05690517601346148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1410570016431273</v>
+        <v>0.1931636594654456</v>
       </c>
       <c r="C28">
-        <v>-0.2728818254928754</v>
+        <v>0.2549136607323723</v>
       </c>
       <c r="D28">
-        <v>0.04196166652902016</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01675327987532597</v>
+      </c>
+      <c r="E28">
+        <v>-0.07386846475405459</v>
+      </c>
+      <c r="F28">
+        <v>0.006859620846646432</v>
+      </c>
+      <c r="G28">
+        <v>-0.07592045692443324</v>
+      </c>
+      <c r="H28">
+        <v>-0.001800163713961909</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.00478646123532975</v>
+        <v>0.006630481428552415</v>
       </c>
       <c r="C29">
-        <v>0.01780294403329861</v>
+        <v>-0.0226137063983593</v>
       </c>
       <c r="D29">
-        <v>-0.06571855616406434</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.07934163814324277</v>
+      </c>
+      <c r="E29">
+        <v>-0.03569271191153468</v>
+      </c>
+      <c r="F29">
+        <v>-0.003671565189464797</v>
+      </c>
+      <c r="G29">
+        <v>-0.02039075968582943</v>
+      </c>
+      <c r="H29">
+        <v>-0.100845407544026</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.04226509500509967</v>
+        <v>0.04320000459595253</v>
       </c>
       <c r="C30">
-        <v>0.0318514816829754</v>
+        <v>-0.05770466206763687</v>
       </c>
       <c r="D30">
-        <v>-0.1654939480959069</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1767793133847033</v>
+      </c>
+      <c r="E30">
+        <v>-0.02135664319556729</v>
+      </c>
+      <c r="F30">
+        <v>-0.008409033405052694</v>
+      </c>
+      <c r="G30">
+        <v>0.03566725953291742</v>
+      </c>
+      <c r="H30">
+        <v>-0.009251642556976837</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06521067884213361</v>
+        <v>0.05472415480679138</v>
       </c>
       <c r="C31">
-        <v>0.0509726984521098</v>
+        <v>-0.0719690447020534</v>
       </c>
       <c r="D31">
-        <v>-0.06216111333173251</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05309303965637636</v>
+      </c>
+      <c r="E31">
+        <v>-0.04120729794701823</v>
+      </c>
+      <c r="F31">
+        <v>-0.03958742729667102</v>
+      </c>
+      <c r="G31">
+        <v>-0.01193517640825038</v>
+      </c>
+      <c r="H31">
+        <v>-0.03707076642214545</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.001114514477622779</v>
+        <v>0.01127989179130028</v>
       </c>
       <c r="C32">
-        <v>0.005296262391499197</v>
+        <v>-0.01539810715168579</v>
       </c>
       <c r="D32">
-        <v>-0.05849901889618665</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.09282030710242242</v>
+      </c>
+      <c r="E32">
+        <v>-0.08192477881609309</v>
+      </c>
+      <c r="F32">
+        <v>0.003371288956253249</v>
+      </c>
+      <c r="G32">
+        <v>-0.05687183006851205</v>
+      </c>
+      <c r="H32">
+        <v>-0.08554870001397143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02580664755200026</v>
+        <v>0.02412947831252273</v>
       </c>
       <c r="C33">
-        <v>0.02127630436319906</v>
+        <v>-0.04138987358394778</v>
       </c>
       <c r="D33">
-        <v>-0.1333411219244103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.131329114013978</v>
+      </c>
+      <c r="E33">
+        <v>-0.04791484820829731</v>
+      </c>
+      <c r="F33">
+        <v>-0.01566017459892549</v>
+      </c>
+      <c r="G33">
+        <v>-0.007952384553139897</v>
+      </c>
+      <c r="H33">
+        <v>-0.06715892224498331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03268955584157961</v>
+        <v>0.0279356891172971</v>
       </c>
       <c r="C34">
-        <v>0.0593402513332934</v>
+        <v>-0.06103696666274831</v>
       </c>
       <c r="D34">
-        <v>-0.07036744625583001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05950583930333205</v>
+      </c>
+      <c r="E34">
+        <v>0.002193562396114428</v>
+      </c>
+      <c r="F34">
+        <v>0.0003590164398089321</v>
+      </c>
+      <c r="G34">
+        <v>-0.01517750633276304</v>
+      </c>
+      <c r="H34">
+        <v>-0.0765750675971064</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0007355019097405498</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.0003092965973188029</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.0036868948330461</v>
+      </c>
+      <c r="E35">
+        <v>-0.0004406588290654433</v>
+      </c>
+      <c r="F35">
+        <v>-0.0001785488639325655</v>
+      </c>
+      <c r="G35">
+        <v>0.0002558277317842845</v>
+      </c>
+      <c r="H35">
+        <v>-0.00259562419288581</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02124747419762167</v>
+        <v>0.0190575664521992</v>
       </c>
       <c r="C36">
-        <v>0.0007773398462066241</v>
+        <v>-0.01461522432736415</v>
       </c>
       <c r="D36">
-        <v>-0.07286594870185478</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07688058769610097</v>
+      </c>
+      <c r="E36">
+        <v>-0.03467383809077033</v>
+      </c>
+      <c r="F36">
+        <v>0.004361672835196082</v>
+      </c>
+      <c r="G36">
+        <v>-0.01385819417408398</v>
+      </c>
+      <c r="H36">
+        <v>-0.05178347765824243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.0277443832134421</v>
+        <v>0.02201032699579567</v>
       </c>
       <c r="C38">
-        <v>0.01712856959461213</v>
+        <v>-0.02187719194146488</v>
       </c>
       <c r="D38">
-        <v>-0.05851120117949729</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.06134505101640481</v>
+      </c>
+      <c r="E38">
+        <v>-0.04283232550663452</v>
+      </c>
+      <c r="F38">
+        <v>0.006865514683903156</v>
+      </c>
+      <c r="G38">
+        <v>0.03449494827173671</v>
+      </c>
+      <c r="H38">
+        <v>-0.04244858359524637</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03994659444647179</v>
+        <v>0.03626075904513421</v>
       </c>
       <c r="C39">
-        <v>0.05114614204547431</v>
+        <v>-0.06343510340328147</v>
       </c>
       <c r="D39">
-        <v>-0.09278465976345882</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1031102496837193</v>
+      </c>
+      <c r="E39">
+        <v>-0.008848430979044782</v>
+      </c>
+      <c r="F39">
+        <v>0.01666830270224013</v>
+      </c>
+      <c r="G39">
+        <v>-1.658473259099337e-05</v>
+      </c>
+      <c r="H39">
+        <v>-0.08682565600509458</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01722576237103005</v>
+        <v>0.01487990092509308</v>
       </c>
       <c r="C40">
-        <v>0.04107370263948364</v>
+        <v>-0.03678722661783269</v>
       </c>
       <c r="D40">
-        <v>-0.07607039415631427</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08326159895279624</v>
+      </c>
+      <c r="E40">
+        <v>-0.07439133742969993</v>
+      </c>
+      <c r="F40">
+        <v>-0.04948072640900671</v>
+      </c>
+      <c r="G40">
+        <v>0.0237535947686228</v>
+      </c>
+      <c r="H40">
+        <v>-0.1625571010487363</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.02520993652851374</v>
+        <v>0.02327927646074645</v>
       </c>
       <c r="C41">
-        <v>-0.008882033264714177</v>
+        <v>-0.008123508205390083</v>
       </c>
       <c r="D41">
-        <v>-0.06881851069005733</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05695745396955484</v>
+      </c>
+      <c r="E41">
+        <v>-0.05170311412569794</v>
+      </c>
+      <c r="F41">
+        <v>0.004742914902600311</v>
+      </c>
+      <c r="G41">
+        <v>0.002001595916177756</v>
+      </c>
+      <c r="H41">
+        <v>-0.04927957603097299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.03476537832300401</v>
+        <v>0.02534074594267673</v>
       </c>
       <c r="C43">
-        <v>0.001959759901908698</v>
+        <v>-0.01852094493041181</v>
       </c>
       <c r="D43">
-        <v>-0.1072579643791365</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08850217787195039</v>
+      </c>
+      <c r="E43">
+        <v>-0.03683120307532645</v>
+      </c>
+      <c r="F43">
+        <v>-0.003474399119076575</v>
+      </c>
+      <c r="G43">
+        <v>0.004748234114743071</v>
+      </c>
+      <c r="H43">
+        <v>-0.06778515148811064</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01295079824896278</v>
+        <v>0.01673891928896623</v>
       </c>
       <c r="C44">
-        <v>0.03992008697753938</v>
+        <v>-0.04124463127395992</v>
       </c>
       <c r="D44">
-        <v>-0.08709754732334896</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09599548029388161</v>
+      </c>
+      <c r="E44">
+        <v>-0.07012370336229207</v>
+      </c>
+      <c r="F44">
+        <v>0.004331339542512657</v>
+      </c>
+      <c r="G44">
+        <v>-0.01725476873390559</v>
+      </c>
+      <c r="H44">
+        <v>-0.07410278945596874</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02040016582665898</v>
+        <v>0.01682263605547372</v>
       </c>
       <c r="C46">
-        <v>0.01834852228475933</v>
+        <v>-0.03006196529364682</v>
       </c>
       <c r="D46">
-        <v>-0.07506826409436004</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08680868500166013</v>
+      </c>
+      <c r="E46">
+        <v>-0.03518194580179962</v>
+      </c>
+      <c r="F46">
+        <v>0.01970874873322809</v>
+      </c>
+      <c r="G46">
+        <v>-0.02992642515230469</v>
+      </c>
+      <c r="H46">
+        <v>-0.1018353548335984</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09269161793520755</v>
+        <v>0.08401409656478608</v>
       </c>
       <c r="C47">
-        <v>0.06765907631176279</v>
+        <v>-0.0891765295052645</v>
       </c>
       <c r="D47">
-        <v>-0.0417680167779708</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03410041268137071</v>
+      </c>
+      <c r="E47">
+        <v>-0.03933714071469498</v>
+      </c>
+      <c r="F47">
+        <v>-0.02053067863727962</v>
+      </c>
+      <c r="G47">
+        <v>-0.05701262084047636</v>
+      </c>
+      <c r="H47">
+        <v>-0.01403887527845904</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02081377565431356</v>
+        <v>0.01945591014044351</v>
       </c>
       <c r="C48">
-        <v>0.006899248810125554</v>
+        <v>-0.0187334752526717</v>
       </c>
       <c r="D48">
-        <v>-0.07231551709605127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07864855965265929</v>
+      </c>
+      <c r="E48">
+        <v>-0.04945932295035938</v>
+      </c>
+      <c r="F48">
+        <v>0.01641389376824902</v>
+      </c>
+      <c r="G48">
+        <v>-0.01032343829633315</v>
+      </c>
+      <c r="H48">
+        <v>-0.05437057532937085</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07623245331199932</v>
+        <v>0.0593778761100652</v>
       </c>
       <c r="C50">
-        <v>0.06318088628341437</v>
+        <v>-0.06995625471150443</v>
       </c>
       <c r="D50">
-        <v>-0.0677673701819842</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05961186985961471</v>
+      </c>
+      <c r="E50">
+        <v>-0.05048474171493664</v>
+      </c>
+      <c r="F50">
+        <v>-0.03954542072186445</v>
+      </c>
+      <c r="G50">
+        <v>0.009681076046245728</v>
+      </c>
+      <c r="H50">
+        <v>-0.04103817786443147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.007797738830382197</v>
+        <v>0.007778700510986545</v>
       </c>
       <c r="C51">
-        <v>0.01279928492251779</v>
+        <v>-0.01531545104872097</v>
       </c>
       <c r="D51">
-        <v>-0.07766322816046868</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08599832202441846</v>
+      </c>
+      <c r="E51">
+        <v>-0.02392223695074992</v>
+      </c>
+      <c r="F51">
+        <v>0.002653711777785906</v>
+      </c>
+      <c r="G51">
+        <v>0.003800780251636343</v>
+      </c>
+      <c r="H51">
+        <v>-0.07869493950756513</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.0750767576201917</v>
+        <v>0.0856942354587383</v>
       </c>
       <c r="C53">
-        <v>0.08893742394612283</v>
+        <v>-0.1015404788880448</v>
       </c>
       <c r="D53">
-        <v>-0.02060077984624793</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.007340951810243822</v>
+      </c>
+      <c r="E53">
+        <v>-0.1003058222383769</v>
+      </c>
+      <c r="F53">
+        <v>-0.02220963248426402</v>
+      </c>
+      <c r="G53">
+        <v>-0.0962653519533781</v>
+      </c>
+      <c r="H53">
+        <v>0.0192894362851958</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.03323728370217321</v>
+        <v>0.02700930358858293</v>
       </c>
       <c r="C54">
-        <v>0.02847566322868979</v>
+        <v>-0.03483065026556077</v>
       </c>
       <c r="D54">
-        <v>-0.08769435076302874</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08702059000222796</v>
+      </c>
+      <c r="E54">
+        <v>-0.03698788306845938</v>
+      </c>
+      <c r="F54">
+        <v>0.01854939891550028</v>
+      </c>
+      <c r="G54">
+        <v>-0.001809352454018039</v>
+      </c>
+      <c r="H54">
+        <v>-0.1136950455045517</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08572403485699642</v>
+        <v>0.08354173033118212</v>
       </c>
       <c r="C55">
-        <v>0.06857975996016308</v>
+        <v>-0.0822963974586073</v>
       </c>
       <c r="D55">
-        <v>0.002115429900089332</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01132339288985086</v>
+      </c>
+      <c r="E55">
+        <v>-0.06313620174788692</v>
+      </c>
+      <c r="F55">
+        <v>-0.02742416988139885</v>
+      </c>
+      <c r="G55">
+        <v>-0.04311087153281352</v>
+      </c>
+      <c r="H55">
+        <v>0.02163346785985308</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.133602644088009</v>
+        <v>0.1303535131167517</v>
       </c>
       <c r="C56">
-        <v>0.1043491325867096</v>
+        <v>-0.1256376191879832</v>
       </c>
       <c r="D56">
-        <v>-0.004985144922625175</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01219317501171215</v>
+      </c>
+      <c r="E56">
+        <v>-0.06357103726129416</v>
+      </c>
+      <c r="F56">
+        <v>-0.01245195661059204</v>
+      </c>
+      <c r="G56">
+        <v>-0.05988634904389679</v>
+      </c>
+      <c r="H56">
+        <v>0.01693565740641762</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.03331715576277863</v>
+        <v>0.03573029090318084</v>
       </c>
       <c r="C58">
-        <v>-0.02465669955413136</v>
+        <v>-0.02103532332711315</v>
       </c>
       <c r="D58">
-        <v>-0.3932501551758479</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.392871705877527</v>
+      </c>
+      <c r="E58">
+        <v>-0.2431851939700066</v>
+      </c>
+      <c r="F58">
+        <v>-0.09639175182461653</v>
+      </c>
+      <c r="G58">
+        <v>0.3908627874324364</v>
+      </c>
+      <c r="H58">
+        <v>0.3909617658891431</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.139687744367532</v>
+        <v>0.173555277460269</v>
       </c>
       <c r="C59">
-        <v>-0.1918262260207244</v>
+        <v>0.1709221189116502</v>
       </c>
       <c r="D59">
-        <v>-0.01526735171740591</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.04477753551460281</v>
+      </c>
+      <c r="E59">
+        <v>-0.01624850718349087</v>
+      </c>
+      <c r="F59">
+        <v>0.03811268935983009</v>
+      </c>
+      <c r="G59">
+        <v>0.0006460715109033278</v>
+      </c>
+      <c r="H59">
+        <v>0.01835791640854504</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2550237340403937</v>
+        <v>0.2320057622500276</v>
       </c>
       <c r="C60">
-        <v>0.05260040496572738</v>
+        <v>-0.09448746136551048</v>
       </c>
       <c r="D60">
-        <v>-0.1433766743758715</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1063848230372112</v>
+      </c>
+      <c r="E60">
+        <v>0.3521847168094343</v>
+      </c>
+      <c r="F60">
+        <v>-0.1020263320212064</v>
+      </c>
+      <c r="G60">
+        <v>-0.01526518944023097</v>
+      </c>
+      <c r="H60">
+        <v>0.08573286787277774</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04585795690981959</v>
+        <v>0.04137849377847612</v>
       </c>
       <c r="C61">
-        <v>0.0500890263457408</v>
+        <v>-0.05919628605571525</v>
       </c>
       <c r="D61">
-        <v>-0.1006829820599753</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09308256355936501</v>
+      </c>
+      <c r="E61">
+        <v>-0.007270285360686905</v>
+      </c>
+      <c r="F61">
+        <v>0.006770380317408994</v>
+      </c>
+      <c r="G61">
+        <v>-0.0215227739859551</v>
+      </c>
+      <c r="H61">
+        <v>-0.08047514218163639</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01656493261943909</v>
+        <v>0.01561854647294616</v>
       </c>
       <c r="C63">
-        <v>0.0168892831435915</v>
+        <v>-0.03100991404335288</v>
       </c>
       <c r="D63">
-        <v>-0.06272750638020899</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07154896583041521</v>
+      </c>
+      <c r="E63">
+        <v>-0.04640649703156267</v>
+      </c>
+      <c r="F63">
+        <v>-0.023595931712793</v>
+      </c>
+      <c r="G63">
+        <v>0.005798517232582777</v>
+      </c>
+      <c r="H63">
+        <v>-0.04726825167145716</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05811085184619713</v>
+        <v>0.05500125937399637</v>
       </c>
       <c r="C64">
-        <v>0.06204330076176199</v>
+        <v>-0.07913649143544423</v>
       </c>
       <c r="D64">
-        <v>-0.06248707690769759</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05525418477578176</v>
+      </c>
+      <c r="E64">
+        <v>-0.02636593266346311</v>
+      </c>
+      <c r="F64">
+        <v>0.01569848278280736</v>
+      </c>
+      <c r="G64">
+        <v>-0.05200065259285904</v>
+      </c>
+      <c r="H64">
+        <v>-0.04535132467522946</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.05927199160774535</v>
+        <v>0.05100397239514035</v>
       </c>
       <c r="C65">
-        <v>7.847874235389337e-05</v>
+        <v>-0.02498727734364928</v>
       </c>
       <c r="D65">
-        <v>-0.1127444169811366</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1182022455622174</v>
+      </c>
+      <c r="E65">
+        <v>-0.007345108235744626</v>
+      </c>
+      <c r="F65">
+        <v>-0.01655371900282384</v>
+      </c>
+      <c r="G65">
+        <v>0.03859598799868561</v>
+      </c>
+      <c r="H65">
+        <v>0.02202337223688968</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04494004154572286</v>
+        <v>0.04277844924536872</v>
       </c>
       <c r="C66">
-        <v>0.05151638166229169</v>
+        <v>-0.07082750040777713</v>
       </c>
       <c r="D66">
-        <v>-0.1159342334460199</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1303275615397144</v>
+      </c>
+      <c r="E66">
+        <v>-0.01272160270069523</v>
+      </c>
+      <c r="F66">
+        <v>0.007689707506549323</v>
+      </c>
+      <c r="G66">
+        <v>0.006984585391453964</v>
+      </c>
+      <c r="H66">
+        <v>-0.06094023198695996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.04573999067826589</v>
+        <v>0.03858364617646041</v>
       </c>
       <c r="C67">
-        <v>0.02594222332653614</v>
+        <v>-0.02764233008628158</v>
       </c>
       <c r="D67">
-        <v>-0.02989573370821587</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02405863436991999</v>
+      </c>
+      <c r="E67">
+        <v>-0.02653595083364556</v>
+      </c>
+      <c r="F67">
+        <v>-0.002119707550912208</v>
+      </c>
+      <c r="G67">
+        <v>0.03182636937880307</v>
+      </c>
+      <c r="H67">
+        <v>-0.04195095281021174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1709987856684962</v>
+        <v>0.1958710687700496</v>
       </c>
       <c r="C68">
-        <v>-0.2504388621164456</v>
+        <v>0.2060396414393342</v>
       </c>
       <c r="D68">
-        <v>0.01728566675294753</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01719840116845377</v>
+      </c>
+      <c r="E68">
+        <v>-0.05553429149348112</v>
+      </c>
+      <c r="F68">
+        <v>-0.02095451659301203</v>
+      </c>
+      <c r="G68">
+        <v>0.008430868439029938</v>
+      </c>
+      <c r="H68">
+        <v>0.008582030368435719</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08383935773026513</v>
+        <v>0.07660464801451371</v>
       </c>
       <c r="C69">
-        <v>0.07933175749175544</v>
+        <v>-0.09826065487661821</v>
       </c>
       <c r="D69">
-        <v>-0.05607413193519421</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04739692338414903</v>
+      </c>
+      <c r="E69">
+        <v>-0.02714061713274976</v>
+      </c>
+      <c r="F69">
+        <v>-0.001759454853210271</v>
+      </c>
+      <c r="G69">
+        <v>-0.03790423861024036</v>
+      </c>
+      <c r="H69">
+        <v>-0.02779784989858552</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1450274918043643</v>
+        <v>0.1808887232206916</v>
       </c>
       <c r="C71">
-        <v>-0.2462497256911487</v>
+        <v>0.2164067523609864</v>
       </c>
       <c r="D71">
-        <v>-0.01536898317564909</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03805473121198831</v>
+      </c>
+      <c r="E71">
+        <v>-0.05356074843797019</v>
+      </c>
+      <c r="F71">
+        <v>-0.02055839464116477</v>
+      </c>
+      <c r="G71">
+        <v>-0.03690054968764531</v>
+      </c>
+      <c r="H71">
+        <v>-0.0139498526362161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09953176676257137</v>
+        <v>0.1020755372479265</v>
       </c>
       <c r="C72">
-        <v>0.03793124202242416</v>
+        <v>-0.06577983701375098</v>
       </c>
       <c r="D72">
-        <v>-0.09359216921942133</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09701572483688246</v>
+      </c>
+      <c r="E72">
+        <v>0.02764140535068861</v>
+      </c>
+      <c r="F72">
+        <v>-0.0407512391709887</v>
+      </c>
+      <c r="G72">
+        <v>-0.02304407146908246</v>
+      </c>
+      <c r="H72">
+        <v>-0.01990028299814895</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.309060287553159</v>
+        <v>0.2596190235493733</v>
       </c>
       <c r="C73">
-        <v>-0.0008783556089510891</v>
+        <v>-0.07250498022449506</v>
       </c>
       <c r="D73">
-        <v>-0.2455607242681788</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1748706213846467</v>
+      </c>
+      <c r="E73">
+        <v>0.6657534697608642</v>
+      </c>
+      <c r="F73">
+        <v>-0.1283412893161136</v>
+      </c>
+      <c r="G73">
+        <v>0.04896211718288233</v>
+      </c>
+      <c r="H73">
+        <v>0.1397834402360685</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1024369091302137</v>
+        <v>0.100733737974239</v>
       </c>
       <c r="C74">
-        <v>0.06774597546312358</v>
+        <v>-0.09027318184113862</v>
       </c>
       <c r="D74">
-        <v>-0.02339794042270833</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-9.57628820114899e-05</v>
+      </c>
+      <c r="E74">
+        <v>-0.08684203371799024</v>
+      </c>
+      <c r="F74">
+        <v>-0.03684822745488222</v>
+      </c>
+      <c r="G74">
+        <v>-0.0596855732434601</v>
+      </c>
+      <c r="H74">
+        <v>0.05065826866046059</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2363919150393391</v>
+        <v>0.2304027684040551</v>
       </c>
       <c r="C75">
-        <v>0.1349101589909842</v>
+        <v>-0.1666024279777572</v>
       </c>
       <c r="D75">
-        <v>0.05855573166597264</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.09877311552513088</v>
+      </c>
+      <c r="E75">
+        <v>-0.08768694158589055</v>
+      </c>
+      <c r="F75">
+        <v>0.02467161051035933</v>
+      </c>
+      <c r="G75">
+        <v>-0.0815783453505993</v>
+      </c>
+      <c r="H75">
+        <v>0.1184777589196504</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1253416367610555</v>
+        <v>0.1250484663472635</v>
       </c>
       <c r="C76">
-        <v>0.09155535101359642</v>
+        <v>-0.115946376951984</v>
       </c>
       <c r="D76">
-        <v>0.002145726255085743</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01824918376942312</v>
+      </c>
+      <c r="E76">
+        <v>-0.1169251833026984</v>
+      </c>
+      <c r="F76">
+        <v>-0.005749951450270061</v>
+      </c>
+      <c r="G76">
+        <v>-0.06277742465779097</v>
+      </c>
+      <c r="H76">
+        <v>0.01114650940227039</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.07463229009293111</v>
+        <v>0.06779358086426834</v>
       </c>
       <c r="C77">
-        <v>0.05147338556093503</v>
+        <v>-0.06983481977512698</v>
       </c>
       <c r="D77">
-        <v>-0.07544110598310265</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1397021876495181</v>
+      </c>
+      <c r="E77">
+        <v>-0.1224003148655337</v>
+      </c>
+      <c r="F77">
+        <v>0.3048763275175601</v>
+      </c>
+      <c r="G77">
+        <v>0.08694440212101648</v>
+      </c>
+      <c r="H77">
+        <v>0.2163460699292691</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03737199309972045</v>
+        <v>0.03979606524622447</v>
       </c>
       <c r="C78">
-        <v>0.04784543151561896</v>
+        <v>-0.06175067983174206</v>
       </c>
       <c r="D78">
-        <v>-0.1130061066971467</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1247193068957009</v>
+      </c>
+      <c r="E78">
+        <v>-0.02179924955443685</v>
+      </c>
+      <c r="F78">
+        <v>-0.02284239411645706</v>
+      </c>
+      <c r="G78">
+        <v>-0.03094081809376581</v>
+      </c>
+      <c r="H78">
+        <v>-0.03774324572501139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.000636302598828998</v>
+        <v>0.04167866919366703</v>
       </c>
       <c r="C79">
-        <v>-0.000643877751291603</v>
+        <v>-0.08773903495202282</v>
       </c>
       <c r="D79">
-        <v>-0.01740568936414753</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02488576382990363</v>
+      </c>
+      <c r="E79">
+        <v>-0.1733504671103706</v>
+      </c>
+      <c r="F79">
+        <v>-0.06736813745400741</v>
+      </c>
+      <c r="G79">
+        <v>-0.5656170414172648</v>
+      </c>
+      <c r="H79">
+        <v>0.5341354850680696</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.03038266080886871</v>
+        <v>0.02565305951552418</v>
       </c>
       <c r="C80">
-        <v>0.01883245846373021</v>
+        <v>-0.03858105779547984</v>
       </c>
       <c r="D80">
-        <v>-0.02768692760476624</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03598436514250973</v>
+      </c>
+      <c r="E80">
+        <v>-0.006600692481208844</v>
+      </c>
+      <c r="F80">
+        <v>0.03572948503465869</v>
+      </c>
+      <c r="G80">
+        <v>0.04088100823743605</v>
+      </c>
+      <c r="H80">
+        <v>-0.02964793413495998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1381303729001234</v>
+        <v>0.1278683114199723</v>
       </c>
       <c r="C81">
-        <v>0.1009966431694607</v>
+        <v>-0.1191963646331369</v>
       </c>
       <c r="D81">
-        <v>0.04387189680107282</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.066138063396083</v>
+      </c>
+      <c r="E81">
+        <v>-0.1164582455273817</v>
+      </c>
+      <c r="F81">
+        <v>0.008969591404905509</v>
+      </c>
+      <c r="G81">
+        <v>-0.05321700231519186</v>
+      </c>
+      <c r="H81">
+        <v>0.03369146234023682</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2871708669216468</v>
+        <v>0.2477926838041594</v>
       </c>
       <c r="C82">
-        <v>0.2783499559758882</v>
+        <v>-0.2550450233433619</v>
       </c>
       <c r="D82">
-        <v>0.2198556081187908</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.224007150613539</v>
+      </c>
+      <c r="E82">
+        <v>0.001092331674559687</v>
+      </c>
+      <c r="F82">
+        <v>-0.05464290025226654</v>
+      </c>
+      <c r="G82">
+        <v>-0.2405261134725794</v>
+      </c>
+      <c r="H82">
+        <v>-0.4342687049238216</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02900921679958211</v>
+        <v>0.02323133785850088</v>
       </c>
       <c r="C83">
-        <v>0.04552911063747957</v>
+        <v>-0.05219573083925361</v>
       </c>
       <c r="D83">
-        <v>-0.05121562564340144</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05177491401826802</v>
+      </c>
+      <c r="E83">
+        <v>-0.002626033212656347</v>
+      </c>
+      <c r="F83">
+        <v>0.02209892206127858</v>
+      </c>
+      <c r="G83">
+        <v>-0.003508946981004647</v>
+      </c>
+      <c r="H83">
+        <v>-0.02901864996996067</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0002164039013961523</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.004984210736359158</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01586026319703794</v>
+      </c>
+      <c r="E84">
+        <v>-0.01560082345620947</v>
+      </c>
+      <c r="F84">
+        <v>-0.00466196645554991</v>
+      </c>
+      <c r="G84">
+        <v>0.009736993410744979</v>
+      </c>
+      <c r="H84">
+        <v>-0.001776685972265416</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1780089691830905</v>
+        <v>0.1602135531892754</v>
       </c>
       <c r="C85">
-        <v>0.09559164283901163</v>
+        <v>-0.1326683801982637</v>
       </c>
       <c r="D85">
-        <v>0.03466717886228957</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.06876038685472022</v>
+      </c>
+      <c r="E85">
+        <v>-0.04651509800384611</v>
+      </c>
+      <c r="F85">
+        <v>-0.0321815790909667</v>
+      </c>
+      <c r="G85">
+        <v>-0.08915197878408426</v>
+      </c>
+      <c r="H85">
+        <v>0.1126563169733171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01420273859329527</v>
+        <v>0.01939040262803278</v>
       </c>
       <c r="C86">
-        <v>0.01891725190195179</v>
+        <v>-0.02217062677779983</v>
       </c>
       <c r="D86">
-        <v>-0.1352483321422531</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.125454756826138</v>
+      </c>
+      <c r="E86">
+        <v>-0.01232169674367892</v>
+      </c>
+      <c r="F86">
+        <v>0.006931426462239132</v>
+      </c>
+      <c r="G86">
+        <v>-0.02619599468188712</v>
+      </c>
+      <c r="H86">
+        <v>-0.06251174820310185</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02715239670809357</v>
+        <v>0.03249396544502457</v>
       </c>
       <c r="C87">
-        <v>0.002569380905092396</v>
+        <v>-0.02585242366966463</v>
       </c>
       <c r="D87">
-        <v>-0.09053595655498223</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1258022172350839</v>
+      </c>
+      <c r="E87">
+        <v>-0.07922951513118362</v>
+      </c>
+      <c r="F87">
+        <v>0.02309997247829684</v>
+      </c>
+      <c r="G87">
+        <v>0.006711318546072668</v>
+      </c>
+      <c r="H87">
+        <v>-0.03453598561360127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.07948486960292005</v>
+        <v>0.07188065037524802</v>
       </c>
       <c r="C88">
-        <v>0.04157179773057695</v>
+        <v>-0.05872311862856822</v>
       </c>
       <c r="D88">
-        <v>-0.05046653447066762</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02911505903630555</v>
+      </c>
+      <c r="E88">
+        <v>-0.02346702822566863</v>
+      </c>
+      <c r="F88">
+        <v>0.0002875374379475864</v>
+      </c>
+      <c r="G88">
+        <v>-0.0007993140092367011</v>
+      </c>
+      <c r="H88">
+        <v>-0.03701717721046766</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2060335477183081</v>
+        <v>0.2700097834628247</v>
       </c>
       <c r="C89">
-        <v>-0.3640196819489412</v>
+        <v>0.351534370985062</v>
       </c>
       <c r="D89">
-        <v>0.0546854270711243</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01317748452629733</v>
+      </c>
+      <c r="E89">
+        <v>-0.06121487423749855</v>
+      </c>
+      <c r="F89">
+        <v>0.04945971954526195</v>
+      </c>
+      <c r="G89">
+        <v>-0.02874022119162689</v>
+      </c>
+      <c r="H89">
+        <v>-0.06654172900976982</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.2043943940092983</v>
+        <v>0.238750658505037</v>
       </c>
       <c r="C90">
-        <v>-0.291484795234407</v>
+        <v>0.259431085049888</v>
       </c>
       <c r="D90">
-        <v>0.05275828820925212</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004982021922391376</v>
+      </c>
+      <c r="E90">
+        <v>-0.0534945350679226</v>
+      </c>
+      <c r="F90">
+        <v>-0.001090193035293675</v>
+      </c>
+      <c r="G90">
+        <v>0.03554394627489648</v>
+      </c>
+      <c r="H90">
+        <v>-0.0486181188013896</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1744020669008315</v>
+        <v>0.1622601048404643</v>
       </c>
       <c r="C91">
-        <v>0.1328648962712115</v>
+        <v>-0.1576778469085644</v>
       </c>
       <c r="D91">
-        <v>0.05811452814382952</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08227778280476972</v>
+      </c>
+      <c r="E91">
+        <v>-0.1055849852706729</v>
+      </c>
+      <c r="F91">
+        <v>-0.002388190622650754</v>
+      </c>
+      <c r="G91">
+        <v>-0.08011644363305519</v>
+      </c>
+      <c r="H91">
+        <v>0.1158677233444399</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1679631770132106</v>
+        <v>0.2157041760602315</v>
       </c>
       <c r="C92">
-        <v>-0.2825811081093634</v>
+        <v>0.2719285035510641</v>
       </c>
       <c r="D92">
-        <v>0.009840261643507044</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01505273016073576</v>
+      </c>
+      <c r="E92">
+        <v>-0.08273181372769645</v>
+      </c>
+      <c r="F92">
+        <v>0.03807763295933716</v>
+      </c>
+      <c r="G92">
+        <v>-0.006895047002229221</v>
+      </c>
+      <c r="H92">
+        <v>-0.03875332787154796</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2316222622352715</v>
+        <v>0.261864688216782</v>
       </c>
       <c r="C93">
-        <v>-0.3147031589176003</v>
+        <v>0.273256890532347</v>
       </c>
       <c r="D93">
-        <v>0.03088475562368471</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01222354440791882</v>
+      </c>
+      <c r="E93">
+        <v>-0.02970506233138144</v>
+      </c>
+      <c r="F93">
+        <v>-0.03340389195720467</v>
+      </c>
+      <c r="G93">
+        <v>-0.007414722049273887</v>
+      </c>
+      <c r="H93">
+        <v>-0.003900093715388396</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3880386608675118</v>
+        <v>0.3341725646845746</v>
       </c>
       <c r="C94">
-        <v>0.2625849048075933</v>
+        <v>-0.2706411993174247</v>
       </c>
       <c r="D94">
-        <v>0.4573792810998243</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4408983865191468</v>
+      </c>
+      <c r="E94">
+        <v>-0.1152888391506792</v>
+      </c>
+      <c r="F94">
+        <v>0.03672005713950577</v>
+      </c>
+      <c r="G94">
+        <v>0.5901190914169743</v>
+      </c>
+      <c r="H94">
+        <v>0.06224727798242432</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.09082369661535718</v>
+        <v>0.07705497470933884</v>
       </c>
       <c r="C95">
-        <v>0.06476345396227881</v>
+        <v>-0.06344630586202418</v>
       </c>
       <c r="D95">
-        <v>-0.1473962794790086</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09149779138805189</v>
+      </c>
+      <c r="E95">
+        <v>0.160122513745283</v>
+      </c>
+      <c r="F95">
+        <v>0.8978164437204512</v>
+      </c>
+      <c r="G95">
+        <v>-0.05851015206572435</v>
+      </c>
+      <c r="H95">
+        <v>0.02238515251034926</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1793971837426321</v>
+        <v>0.165524865495339</v>
       </c>
       <c r="C98">
-        <v>0.01499668651506303</v>
+        <v>-0.05714661377192976</v>
       </c>
       <c r="D98">
-        <v>-0.1382650166634814</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1243760843524069</v>
+      </c>
+      <c r="E98">
+        <v>0.2991655640426359</v>
+      </c>
+      <c r="F98">
+        <v>-0.1095879007944015</v>
+      </c>
+      <c r="G98">
+        <v>-0.0294806381721501</v>
+      </c>
+      <c r="H98">
+        <v>0.04061747781735506</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.00463670748157592</v>
+        <v>0.006809487948758704</v>
       </c>
       <c r="C101">
-        <v>0.01718156186547765</v>
+        <v>-0.02161881682713439</v>
       </c>
       <c r="D101">
-        <v>-0.06537301004535299</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.07923706277877215</v>
+      </c>
+      <c r="E101">
+        <v>-0.03665980927522554</v>
+      </c>
+      <c r="F101">
+        <v>-0.002618483588621294</v>
+      </c>
+      <c r="G101">
+        <v>-0.021080223049184</v>
+      </c>
+      <c r="H101">
+        <v>-0.100987843970895</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1211234239401503</v>
+        <v>0.109204141809723</v>
       </c>
       <c r="C102">
-        <v>0.1161473318719368</v>
+        <v>-0.1193402351263428</v>
       </c>
       <c r="D102">
-        <v>0.03085494249981218</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0481973260539069</v>
+      </c>
+      <c r="E102">
+        <v>-0.029641988803124</v>
+      </c>
+      <c r="F102">
+        <v>0.02318777887847606</v>
+      </c>
+      <c r="G102">
+        <v>-0.05605429295849836</v>
+      </c>
+      <c r="H102">
+        <v>-0.01895721897389052</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
